--- a/Data/March2023.xlsx
+++ b/Data/March2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreas/Desktop/Portfolio/PublicCode/platereadeR/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BF6F6-7460-BF4E-A9B0-8C51ED9BB68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4E0F9-C687-1146-970A-52F5023999AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1720" windowWidth="22460" windowHeight="14980" xr2:uid="{05B3AA58-104B-4C3B-8656-7D61965829EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{05B3AA58-104B-4C3B-8656-7D61965829EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate1" sheetId="2" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693980D7-A605-734C-A0D7-C1400BE78B86}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -929,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A186CD2-A564-BC48-8F50-580FDA58ED77}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
